--- a/resultados_riego.xlsx
+++ b/resultados_riego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>765.625</v>
+        <v>466.25</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>255.625</v>
+        <v>788.125</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>590</v>
+        <v>210</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>maceteros</t>
+          <t>arbustos</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -590,18 +590,45 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>23</v>
       </c>
       <c r="E6" t="n">
+        <v>485</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>maceteros</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>aspersor</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23</v>
+      </c>
+      <c r="E7" t="n">
         <v>110</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
         <v>1</v>
       </c>
     </row>
